--- a/data/SongComments.xlsx
+++ b/data/SongComments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annikaliu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\OneDrive\Desktop\MoonKube\moonkube-flow3r\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DDF94B-E599-4B44-AAB6-ACF2AF3658C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA891A3-312A-448B-B426-5493B4AD52CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{2DDE7234-3BFC-FA40-91A5-2C9637A49429}"/>
+    <workbookView xWindow="2048" yWindow="2820" windowWidth="21600" windowHeight="11333" xr2:uid="{2DDE7234-3BFC-FA40-91A5-2C9637A49429}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>song_id</t>
   </si>
@@ -48,6 +48,51 @@
   </si>
   <si>
     <t>timestamp</t>
+  </si>
+  <si>
+    <t>c_f_h</t>
+  </si>
+  <si>
+    <t>f_m_f_l</t>
+  </si>
+  <si>
+    <t>h_h</t>
+  </si>
+  <si>
+    <t>user_aki</t>
+  </si>
+  <si>
+    <t>user_natsu</t>
+  </si>
+  <si>
+    <t>user_sumi</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>flying</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>full moon</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>life~</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>heartbeat</t>
   </si>
 </sst>
 </file>
@@ -83,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,15 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF88AB70-7E71-AB4C-8965-10A8EF8ECBD7}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,6 +488,132 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46380.831944444442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>46082.833333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>46023.041666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>46023.083333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>46055.708333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>46055.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>46055.791666666664</v>
       </c>
     </row>
   </sheetData>
